--- a/Auto Instrumentation Sheet.xlsx
+++ b/Auto Instrumentation Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilianobonilla/Desktop/masa-umich/mcnugget/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MASA-Avionics\masa-umich\mcnugget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775F8A8D-E2BE-174C-A9E7-4988F673070F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88787911-04B8-425C-B19A-BB734F493935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -588,23 +588,23 @@
   </sheetPr>
   <dimension ref="A1:Y82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="29.33203125" customWidth="1"/>
     <col min="9" max="9" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +649,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -664,7 +664,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -679,7 +679,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -694,7 +694,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -709,7 +709,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -724,7 +724,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -739,7 +739,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -754,7 +754,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -769,7 +769,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -784,7 +784,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -799,7 +799,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -814,7 +814,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -829,7 +829,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -844,7 +844,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -859,7 +859,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -875,7 +875,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -890,7 +890,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -905,7 +905,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -920,7 +920,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -935,7 +935,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -950,7 +950,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
@@ -965,7 +965,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
@@ -980,7 +980,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -995,7 +995,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
@@ -1041,10 +1041,10 @@
         <v>36</v>
       </c>
       <c r="E27" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
@@ -1058,10 +1058,16 @@
         <v>36</v>
       </c>
       <c r="E28" s="3">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2500</v>
+      </c>
+      <c r="H28">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="I28">
+        <v>17.193000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
@@ -1078,7 +1084,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>41</v>
       </c>
@@ -1109,16 +1115,10 @@
         <v>36</v>
       </c>
       <c r="E31" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H31">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="I31">
-        <v>17.193000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
@@ -1132,10 +1132,10 @@
         <v>36</v>
       </c>
       <c r="E32" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>43</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
@@ -1166,10 +1166,10 @@
         <v>36</v>
       </c>
       <c r="E34" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>45</v>
       </c>
@@ -1183,10 +1183,10 @@
         <v>36</v>
       </c>
       <c r="E35" s="3">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>47</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>48</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>49</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>50</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>51</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>52</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>53</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>54</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>55</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>56</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>57</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>58</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>59</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>60</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>61</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>62</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>63</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>64</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>65</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>66</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>67</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>68</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>69</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>70</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>71</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>72</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>73</v>
       </c>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>75</v>
       </c>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>76</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>77</v>
       </c>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>78</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>81</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>82</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>83</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>84</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>85</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>86</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>87</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>88</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>89</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>90</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>91</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>92</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>93</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>94</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>95</v>
       </c>

--- a/Auto Instrumentation Sheet.xlsx
+++ b/Auto Instrumentation Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MASA-Avionics\masa-umich\mcnugget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88787911-04B8-425C-B19A-BB734F493935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639C1162-DB87-4963-B386-F609FD51EA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,8 +588,8 @@
   </sheetPr>
   <dimension ref="A1:Y82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -875,7 +875,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -890,7 +890,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -905,7 +905,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -920,7 +920,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -935,7 +935,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -950,7 +950,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
@@ -965,7 +965,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
@@ -980,7 +980,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -995,7 +995,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -1024,10 +1024,10 @@
         <v>36</v>
       </c>
       <c r="E26" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
@@ -1041,10 +1041,10 @@
         <v>36</v>
       </c>
       <c r="E27" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
@@ -1060,14 +1060,8 @@
       <c r="E28" s="3">
         <v>2500</v>
       </c>
-      <c r="H28">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="I28">
-        <v>17.193000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
@@ -1081,10 +1075,10 @@
         <v>36</v>
       </c>
       <c r="E29" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
@@ -1098,10 +1092,10 @@
         <v>36</v>
       </c>
       <c r="E30" s="3">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>41</v>
       </c>
@@ -1118,7 +1112,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
@@ -1135,7 +1129,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>43</v>
       </c>
@@ -1152,7 +1146,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
@@ -1169,7 +1163,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>45</v>
       </c>
@@ -1186,7 +1180,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
@@ -1202,8 +1196,14 @@
       <c r="E36" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="I36">
+        <v>17.193000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>47</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>48</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>49</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>50</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>51</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>52</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>53</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>54</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>55</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>56</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>57</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>58</v>
       </c>

--- a/Auto Instrumentation Sheet.xlsx
+++ b/Auto Instrumentation Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MASA-Avionics\masa-umich\mcnugget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88787911-04B8-425C-B19A-BB734F493935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42993C0-9DF6-46AE-954B-44EF3114B970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -588,23 +588,23 @@
   </sheetPr>
   <dimension ref="A1:Y82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="36.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +649,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -664,7 +664,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -679,7 +679,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -694,7 +694,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -709,7 +709,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -724,7 +724,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -739,7 +739,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -754,7 +754,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -769,7 +769,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -784,7 +784,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -799,7 +799,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -814,7 +814,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -829,7 +829,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -844,7 +844,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -859,7 +859,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -875,7 +875,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -890,7 +890,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -905,7 +905,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -920,7 +920,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -935,7 +935,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -950,7 +950,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
@@ -965,7 +965,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
@@ -980,7 +980,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -995,7 +995,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
@@ -1058,16 +1058,10 @@
         <v>36</v>
       </c>
       <c r="E28" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H28">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="I28">
-        <v>17.193000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
@@ -1084,7 +1078,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
@@ -1098,10 +1092,10 @@
         <v>36</v>
       </c>
       <c r="E30" s="3">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>41</v>
       </c>
@@ -1115,10 +1109,10 @@
         <v>36</v>
       </c>
       <c r="E31" s="3">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
@@ -1132,10 +1126,10 @@
         <v>36</v>
       </c>
       <c r="E32" s="3">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>43</v>
       </c>
@@ -1152,7 +1146,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
@@ -1169,7 +1163,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>45</v>
       </c>
@@ -1186,7 +1180,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
@@ -1200,10 +1194,16 @@
         <v>36</v>
       </c>
       <c r="E36" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="H36">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="I36">
+        <v>17.193000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>47</v>
       </c>
@@ -1217,10 +1217,10 @@
         <v>36</v>
       </c>
       <c r="E37" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>48</v>
       </c>
@@ -1234,10 +1234,10 @@
         <v>36</v>
       </c>
       <c r="E38" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>49</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>50</v>
       </c>
@@ -1268,10 +1268,10 @@
         <v>36</v>
       </c>
       <c r="E40" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>51</v>
       </c>
@@ -1285,10 +1285,10 @@
         <v>36</v>
       </c>
       <c r="E41" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>52</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>53</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>54</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>55</v>
       </c>
@@ -1353,10 +1353,10 @@
         <v>36</v>
       </c>
       <c r="E45" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>56</v>
       </c>
@@ -1370,10 +1370,10 @@
         <v>36</v>
       </c>
       <c r="E46" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>57</v>
       </c>
@@ -1387,10 +1387,10 @@
         <v>36</v>
       </c>
       <c r="E47" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>58</v>
       </c>
@@ -1404,10 +1404,10 @@
         <v>36</v>
       </c>
       <c r="E48" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>59</v>
       </c>
@@ -1421,10 +1421,10 @@
         <v>36</v>
       </c>
       <c r="E49" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>60</v>
       </c>
@@ -1438,10 +1438,10 @@
         <v>36</v>
       </c>
       <c r="E50" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>61</v>
       </c>
@@ -1455,10 +1455,10 @@
         <v>36</v>
       </c>
       <c r="E51" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>62</v>
       </c>
@@ -1472,10 +1472,10 @@
         <v>36</v>
       </c>
       <c r="E52" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>63</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>64</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>65</v>
       </c>
@@ -1523,10 +1523,10 @@
         <v>36</v>
       </c>
       <c r="E55" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>66</v>
       </c>
@@ -1540,10 +1540,10 @@
         <v>36</v>
       </c>
       <c r="E56" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>67</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>68</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>69</v>
       </c>
@@ -1591,10 +1591,10 @@
         <v>36</v>
       </c>
       <c r="E59" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>70</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>71</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>72</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>73</v>
       </c>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>75</v>
       </c>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>76</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>77</v>
       </c>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>78</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>81</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>82</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>83</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>84</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>85</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>86</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>87</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>88</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>89</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>90</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>91</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>92</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>93</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>94</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>95</v>
       </c>

--- a/Auto Instrumentation Sheet.xlsx
+++ b/Auto Instrumentation Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MASA-Avionics\masa-umich\mcnugget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42993C0-9DF6-46AE-954B-44EF3114B970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0B7C5A-D889-449A-B5A1-C8B7A94890B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="104">
   <si>
     <t>Name</t>
   </si>
@@ -49,84 +49,15 @@
     <t>PT Slope (PSI/V - Optional)</t>
   </si>
   <si>
-    <t>lox_mpv</t>
-  </si>
-  <si>
     <t>gse</t>
   </si>
   <si>
     <t>VLV</t>
   </si>
   <si>
-    <t>valve_2</t>
-  </si>
-  <si>
-    <t>valve_3</t>
-  </si>
-  <si>
-    <t>valve_4</t>
-  </si>
-  <si>
-    <t>valve_5</t>
-  </si>
-  <si>
-    <t>valve_6</t>
-  </si>
-  <si>
     <t>valve_7</t>
   </si>
   <si>
-    <t>valve_8</t>
-  </si>
-  <si>
-    <t>valve_9</t>
-  </si>
-  <si>
-    <t>valve_10</t>
-  </si>
-  <si>
-    <t>valve_11</t>
-  </si>
-  <si>
-    <t>valve_12</t>
-  </si>
-  <si>
-    <t>valve_13</t>
-  </si>
-  <si>
-    <t>valve_14</t>
-  </si>
-  <si>
-    <t>valve_15</t>
-  </si>
-  <si>
-    <t>valve_16</t>
-  </si>
-  <si>
-    <t>valve_17</t>
-  </si>
-  <si>
-    <t>valve_18</t>
-  </si>
-  <si>
-    <t>valve_19</t>
-  </si>
-  <si>
-    <t>valve_20</t>
-  </si>
-  <si>
-    <t>valve_21</t>
-  </si>
-  <si>
-    <t>valve_22</t>
-  </si>
-  <si>
-    <t>valve_23</t>
-  </si>
-  <si>
-    <t>valve_24</t>
-  </si>
-  <si>
     <t>pt_1</t>
   </si>
   <si>
@@ -308,6 +239,99 @@
   </si>
   <si>
     <t>tc_16</t>
+  </si>
+  <si>
+    <t>valve_30</t>
+  </si>
+  <si>
+    <t>valve_31</t>
+  </si>
+  <si>
+    <t>valve_32</t>
+  </si>
+  <si>
+    <t>Ox Press Iso Pilot</t>
+  </si>
+  <si>
+    <t>Fuel Press Iso Pilot</t>
+  </si>
+  <si>
+    <t>Air Drive Iso 1</t>
+  </si>
+  <si>
+    <t>Air Drive Iso 2</t>
+  </si>
+  <si>
+    <t>Ox Dome Iso</t>
+  </si>
+  <si>
+    <t>Fuel Feedline Purge</t>
+  </si>
+  <si>
+    <t>Ox Feedline Purge</t>
+  </si>
+  <si>
+    <t>Fuel Pre-Press</t>
+  </si>
+  <si>
+    <t>Ox Pre-Press</t>
+  </si>
+  <si>
+    <t>Ox Fill Purge</t>
+  </si>
+  <si>
+    <t>Engine Pneumatics Iso</t>
+  </si>
+  <si>
+    <t>Engine Pneumatics Vent</t>
+  </si>
+  <si>
+    <t>Ox Drain Pilot</t>
+  </si>
+  <si>
+    <t>Fuel Vent Pilot</t>
+  </si>
+  <si>
+    <t>Ox Low-Flow Vent Pilot</t>
+  </si>
+  <si>
+    <t>Ox High-Flow Vent Pilot</t>
+  </si>
+  <si>
+    <t>Press Vent Pilot</t>
+  </si>
+  <si>
+    <t>Ox Fill Valve Pilot</t>
+  </si>
+  <si>
+    <t>Gas Booster Iso Pilot</t>
+  </si>
+  <si>
+    <t>Ox Prevalve Pilot</t>
+  </si>
+  <si>
+    <t>Fuel Prevalve Pilot</t>
+  </si>
+  <si>
+    <t>Press Fill Pilot</t>
+  </si>
+  <si>
+    <t>Pneumatics margin</t>
+  </si>
+  <si>
+    <t>Ox TPC Valve 1</t>
+  </si>
+  <si>
+    <t>Ox TPC Valve 2</t>
+  </si>
+  <si>
+    <t>Ox TPC Valve 3</t>
+  </si>
+  <si>
+    <t>Fuel TPC Valve 1</t>
+  </si>
+  <si>
+    <t>Fuel TPC Valve 2</t>
   </si>
 </sst>
 </file>
@@ -586,15 +610,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y82"/>
+  <dimension ref="A1:Y90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="7.140625" customWidth="1"/>
@@ -651,604 +675,582 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3">
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3">
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3">
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3">
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3">
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="3">
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3">
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3">
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3">
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="3">
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="3">
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="3">
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1000</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1000</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="3">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1000</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="3">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1000</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="3">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1000</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="3">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1000</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1000</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="3">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1000</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E34" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E35" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E36" s="3">
-        <v>200</v>
-      </c>
-      <c r="H36">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="I36">
-        <v>17.193000000000001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E37" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E38" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E39" s="3">
         <v>1000</v>
@@ -1256,169 +1258,175 @@
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" s="3">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E40" s="3">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E41" s="3">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E42" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" s="3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E43" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" s="3">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E44" s="3">
-        <v>1000</v>
+        <v>200</v>
+      </c>
+      <c r="H44">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="I44">
+        <v>17.193000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45" s="3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E45" s="3">
-        <v>5000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" s="3">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E46" s="3">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47" s="3">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E47" s="3">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E48" s="3">
-        <v>5000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" s="3">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E49" s="3">
         <v>5000</v>
@@ -1426,101 +1434,101 @@
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" s="3">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E50" s="3">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" s="3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E51" s="3">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52" s="3">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E52" s="3">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" s="3">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E53" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54" s="3">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E54" s="3">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55" s="3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E55" s="3">
         <v>5000</v>
@@ -1528,520 +1536,657 @@
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C56" s="3">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E56" s="3">
-        <v>250</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57" s="3">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E57" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" s="3">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E58" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" s="3">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60" s="3">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E60" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" s="3">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" s="3">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E62" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="E63" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64" s="3">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="E64" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65" s="3">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C66" s="3">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E66" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="67" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C67" s="3">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3">
-        <v>0</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="E67" s="3">
+        <v>5000</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C68" s="3">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1000</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C69" s="3">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3">
-        <v>0</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1000</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C70" s="3">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1000</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="E71" s="3"/>
-      <c r="F71" s="3">
-        <v>0</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="72" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="E72" s="3"/>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="73" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C73" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="E73" s="3"/>
-      <c r="F73" s="3">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="74" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="E74" s="3"/>
-      <c r="F74" s="3">
-        <v>0</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="75" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C75" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3">
         <v>0</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3">
         <v>0</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3">
         <v>0</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C78" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3">
         <v>0</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C79" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3">
         <v>0</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3">
         <v>0</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C81" s="3">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C82" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3">
         <v>0</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="3">
+        <v>9</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="3">
+        <v>10</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3">
+        <v>0</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="3">
+        <v>11</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="3">
+        <v>12</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="3">
+        <v>13</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="3">
+        <v>14</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3">
+        <v>0</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="3">
+        <v>15</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="3">
+        <v>16</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Auto Instrumentation Sheet.xlsx
+++ b/Auto Instrumentation Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MASA-Avionics\masa-umich\mcnugget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0B7C5A-D889-449A-B5A1-C8B7A94890B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E6CD8A-F437-44BA-A2F9-45BB40355BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -612,8 +612,8 @@
   </sheetPr>
   <dimension ref="A1:Y90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="N12" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
